--- a/Paper_Plot/COVID_2020_Project/All donors_NoFloridaDonor.xlsx
+++ b/Paper_Plot/COVID_2020_Project/All donors_NoFloridaDonor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Files\JHU\Labs\Git_Repos\COVID19_Cross_Reference\Paper_Plot\COVID_2020_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F73D672-6B41-4827-9DB2-DC59A299C222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E099E4-162F-4ADA-B7BA-4FB8FD4BE2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F78FF7A1-1162-417A-8A99-CFA0F704D59F}"/>
+    <workbookView xWindow="4728" yWindow="2088" windowWidth="16128" windowHeight="11136" xr2:uid="{F78FF7A1-1162-417A-8A99-CFA0F704D59F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,6 +60,7 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -404,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4520A42C-E65E-4D8D-888F-7A5AA8FEB8B6}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:D33"/>
     </sheetView>
   </sheetViews>
